--- a/Documentación/Casos de prueba.xlsx
+++ b/Documentación/Casos de prueba.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dniar\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Avance APTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D325B76-E45C-436A-84FE-D8B8FA4EB8E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F1FE54-6A75-4705-BBFE-E6E9CA087725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>Plantilla de Casos de Pruebas de Software</t>
   </si>
@@ -223,12 +223,6 @@
     <t>PU ID3</t>
   </si>
   <si>
-    <t>PU ID5</t>
-  </si>
-  <si>
-    <t>PU ID7</t>
-  </si>
-  <si>
     <t>Actualizar Datos</t>
   </si>
   <si>
@@ -248,6 +242,33 @@
   </si>
   <si>
     <t>Datos Eliminados</t>
+  </si>
+  <si>
+    <t>Prueba de funcionalidad</t>
+  </si>
+  <si>
+    <t>Ingresando ID inexistente</t>
+  </si>
+  <si>
+    <t>PF ID3</t>
+  </si>
+  <si>
+    <t>Mensaje de retroalimentación sobre campos incorrectos</t>
+  </si>
+  <si>
+    <t>Mensaje de retroalimentación sobre ID inexistente</t>
+  </si>
+  <si>
+    <t>PU ID6</t>
+  </si>
+  <si>
+    <t>PF ID6</t>
+  </si>
+  <si>
+    <t>PU ID9</t>
+  </si>
+  <si>
+    <t>PF ID9</t>
   </si>
 </sst>
 </file>
@@ -397,10 +418,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,6 +427,10 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -644,7 +665,7 @@
     <col min="9" max="9" width="70.42578125" customWidth="1"/>
     <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="12" max="12" width="62.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="32.42578125" customWidth="1"/>
@@ -771,7 +792,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -860,49 +881,49 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="33" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>45131</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>45131</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P7" s="2"/>
@@ -918,49 +939,49 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="30">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45131</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>45131</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P8" s="2"/>
@@ -976,49 +997,49 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="30">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>45132</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>70</v>
+      <c r="H9" s="10" t="s">
+        <v>68</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>71</v>
+      <c r="L9" s="10" t="s">
+        <v>69</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>45132</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P9" s="2"/>
@@ -1033,50 +1054,50 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="30">
-      <c r="A10" s="12">
+    <row r="10" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>45132</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>71</v>
+      <c r="L10" s="10" t="s">
+        <v>75</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>45132</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P10" s="2"/>
@@ -1091,50 +1112,50 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="30">
-      <c r="A11" s="12">
+    <row r="11" spans="1:26" ht="27" customHeight="1">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>43</v>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>54</v>
+      <c r="C11" s="11" t="s">
+        <v>56</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>45132</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>42</v>
+      <c r="E11" s="10" t="s">
+        <v>40</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>57</v>
+      <c r="F11" s="10" t="s">
+        <v>51</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>46</v>
+      <c r="G11" s="10" t="s">
+        <v>52</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>68</v>
+      <c r="H11" s="10" t="s">
+        <v>58</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>48</v>
+      <c r="J11" s="10" t="s">
+        <v>73</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>48</v>
+      <c r="K11" s="10" t="s">
+        <v>74</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>72</v>
+      <c r="L11" s="10" t="s">
+        <v>76</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <v>45132</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P11" s="2"/>
@@ -1150,49 +1171,49 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="30">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>53</v>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>45132</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>67</v>
+      <c r="F12" s="10" t="s">
+        <v>57</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>58</v>
+      <c r="H12" s="10" t="s">
+        <v>66</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>61</v>
+      <c r="J12" s="10" t="s">
+        <v>48</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>65</v>
+      <c r="K12" s="10" t="s">
+        <v>48</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>72</v>
+      <c r="L12" s="10" t="s">
+        <v>70</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="12">
         <v>45132</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P12" s="2"/>
@@ -1208,49 +1229,49 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="30">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
+      <c r="B13" s="10" t="s">
+        <v>53</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>55</v>
+      <c r="C13" s="11" t="s">
+        <v>54</v>
       </c>
-      <c r="D13" s="14">
-        <v>45134</v>
+      <c r="D13" s="12">
+        <v>45132</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>41</v>
+      <c r="E13" s="10" t="s">
+        <v>42</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>63</v>
+      <c r="F13" s="10" t="s">
+        <v>65</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>52</v>
+      <c r="G13" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>69</v>
+      <c r="H13" s="10" t="s">
+        <v>58</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>48</v>
+      <c r="J13" s="10" t="s">
+        <v>61</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>48</v>
+      <c r="K13" s="10" t="s">
+        <v>77</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>73</v>
+      <c r="L13" s="10" t="s">
+        <v>70</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="14">
-        <v>45134</v>
+      <c r="N13" s="12">
+        <v>45132</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P13" s="2"/>
@@ -1265,50 +1286,48 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="30">
-      <c r="A14" s="12">
-        <v>8</v>
+    <row r="14" spans="1:26" ht="27" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>72</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>53</v>
+      <c r="C14" s="11" t="s">
+        <v>54</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
+      <c r="D14" s="12">
+        <v>45132</v>
       </c>
-      <c r="D14" s="14">
-        <v>45134</v>
+      <c r="E14" s="10" t="s">
+        <v>42</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>41</v>
+      <c r="F14" s="10" t="s">
+        <v>65</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>63</v>
+      <c r="G14" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="K14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="14">
-        <v>45134</v>
+      <c r="N14" s="12">
+        <v>45132</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="P14" s="2"/>
@@ -1323,22 +1342,52 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+    <row r="15" spans="1:26" ht="30">
+      <c r="A15" s="10">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45134</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="12">
+        <v>45134</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1351,22 +1400,52 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+    <row r="16" spans="1:26" ht="30">
+      <c r="A16" s="10">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="12">
+        <v>45134</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="12">
+        <v>45134</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1379,22 +1458,52 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+    <row r="17" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A17" s="10">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="12">
+        <v>45134</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="12">
+        <v>45134</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1464,21 +1573,21 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1491,22 +1600,22 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+    <row r="21" spans="1:26">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1519,7 +1628,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -28930,6 +29039,62 @@
       <c r="X1000" s="2"/>
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
+    </row>
+    <row r="1001" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29467,10 +29632,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
